--- a/RandomSheet.xlsx
+++ b/RandomSheet.xlsx
@@ -1,74 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prost\OneDrive\Документи\GitHub\-_Lab\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="11292"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId4"/>
+    <sheet name="Ratings" sheetId="3" r:id="rId1"/>
+    <sheet name="Students" sheetId="2" r:id="rId2"/>
+    <sheet name="Groups" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>groups</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+  <si>
+    <t>Номер групи</t>
+  </si>
+  <si>
+    <t>Назва спеціальності</t>
+  </si>
+  <si>
+    <t>Номер курсу</t>
+  </si>
+  <si>
+    <t>Номер залікової старости</t>
+  </si>
+  <si>
+    <t>Номер факультету</t>
+  </si>
+  <si>
+    <t>Форма навчання</t>
   </si>
   <si>
     <t>asd</t>
   </si>
   <si>
-    <t>specialtyName</t>
-  </si>
-  <si>
-    <t>courseNumber</t>
-  </si>
-  <si>
-    <t>headmanNumber</t>
-  </si>
-  <si>
-    <t>facultyNumber</t>
-  </si>
-  <si>
     <t>asdasd</t>
   </si>
   <si>
-    <t>students</t>
-  </si>
-  <si>
-    <t>ratings</t>
-  </si>
-  <si>
     <t>sada</t>
   </si>
   <si>
-    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2022 Aspose Pty Ltd.</t>
+    <t>Номер залікової книжки</t>
+  </si>
+  <si>
+    <t>Фамілія</t>
+  </si>
+  <si>
+    <t>Ім'я</t>
+  </si>
+  <si>
+    <t>По-батькові</t>
+  </si>
+  <si>
+    <t>Адреса</t>
+  </si>
+  <si>
+    <t>Назва предмету</t>
+  </si>
+  <si>
+    <t>Оцінка за національною шкалою</t>
+  </si>
+  <si>
+    <t>Оцінка за стобальною шкалою</t>
+  </si>
+  <si>
+    <t>Оцінка за ECTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,117 +113,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -211,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +152,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -239,7 +164,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -251,14 +176,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -286,31 +211,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -338,26 +246,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,89 +397,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861e28b0-b577-48be-b8df-b3211f1d277e}">
-  <dimension ref="D4:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="4" max="4" width="7.28571428571429" customWidth="1"/>
-    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="13.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="15.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="13.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="8.42857142857143" customWidth="1"/>
-    <col min="11" max="11" width="6.85714285714286" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="4:11" ht="12.75">
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="4:9" ht="12.75">
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="12.75">
-      <c r="D6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="4:9" ht="12.75">
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:I4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a7d31ce0-31a3-4d25-ae28-f6506b08ac76}">
-  <dimension ref="A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>